--- a/Tables/Alluvial- Excluded.xlsx
+++ b/Tables/Alluvial- Excluded.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Alluvial for Mapping" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Alluvial Exhibit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alluvial for Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alluvial Exhibit" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2993,12 +2993,12 @@
       </c>
       <c r="V18" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W18" s="1" t="inlineStr">
         <is>
-          <t>1998-05-28</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X18" s="1" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="V22" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W22" s="1" t="inlineStr">
         <is>
-          <t>1998-08-26</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X22" s="1" t="inlineStr">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="V24" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>2006-09-08</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X24" s="1" t="inlineStr">
@@ -3949,12 +3949,12 @@
       </c>
       <c r="V25" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W25" s="1" t="inlineStr">
         <is>
-          <t>2006-09-08</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X25" s="1" t="inlineStr">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="V29" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W29" s="1" t="inlineStr">
         <is>
-          <t>1998-09-03</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X29" s="1" t="inlineStr">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="V36" s="1" t="inlineStr">
         <is>
-          <t>0.781</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W36" s="1" t="inlineStr">
         <is>
-          <t>2001-03-28</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X36" s="1" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="V38" s="1" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W38" s="1" t="inlineStr">
         <is>
-          <t>1997-12-04</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X38" s="1" t="inlineStr">
@@ -5905,12 +5905,12 @@
       </c>
       <c r="V39" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="W39" s="1" t="inlineStr">
         <is>
-          <t>2008-09-04</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="X39" s="1" t="inlineStr">
@@ -7332,12 +7332,12 @@
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>5/28/98</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -7500,12 +7500,12 @@
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>8/26/98</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -7576,12 +7576,12 @@
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>9/8/06</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -7610,12 +7610,12 @@
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>9/8/06</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -7786,12 +7786,12 @@
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>9/3/98</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -8072,12 +8072,12 @@
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>0.781</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>3/28/01</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -8144,12 +8144,12 @@
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>12/4/97</t>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -8186,12 +8186,12 @@
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>9/4/08</t>
+          <t>NA</t>
         </is>
       </c>
     </row>

--- a/Tables/Alluvial- Excluded.xlsx
+++ b/Tables/Alluvial- Excluded.xlsx
@@ -3003,12 +3003,12 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>1998-05-28</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z18" s="1" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>1998-08-26</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z22" s="1" t="inlineStr">
@@ -3835,12 +3835,12 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>2006-09-08</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z24" s="1" t="inlineStr">
@@ -3959,12 +3959,12 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>2006-09-08</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z25" s="1" t="inlineStr">
@@ -4535,12 +4535,12 @@
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t>1998-09-03</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z29" s="1" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>0.781</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>2001-03-28</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z36" s="1" t="inlineStr">
@@ -5767,12 +5767,12 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>1998-09-04</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z38" s="1" t="inlineStr">
@@ -5915,12 +5915,12 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>2008-09-04</t>
+          <t>No Detect Data</t>
         </is>
       </c>
       <c r="Z39" s="1" t="inlineStr">

--- a/Tables/Alluvial- Excluded.xlsx
+++ b/Tables/Alluvial- Excluded.xlsx
@@ -1459,7 +1459,7 @@
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -2475,7 +2475,7 @@
       <c r="O15" s="1" t="inlineStr"/>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr"/>
@@ -2611,7 +2611,7 @@
       <c r="O16" s="1" t="inlineStr"/>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr"/>
@@ -2747,7 +2747,7 @@
       <c r="O17" s="1" t="inlineStr"/>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -3035,7 +3035,7 @@
       <c r="O19" s="1" t="inlineStr"/>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
       <c r="O20" s="1" t="inlineStr"/>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr"/>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -3455,7 +3455,7 @@
       <c r="O22" s="1" t="inlineStr"/>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr"/>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q24" s="1" t="inlineStr">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q25" s="1" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q26" s="1" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q27" s="1" t="inlineStr">
@@ -4307,7 +4307,7 @@
       <c r="O28" s="1" t="inlineStr"/>
       <c r="P28" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q28" s="1" t="inlineStr"/>
@@ -4435,7 +4435,7 @@
       <c r="O29" s="1" t="inlineStr"/>
       <c r="P29" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q29" s="1" t="inlineStr"/>
@@ -4563,7 +4563,7 @@
       <c r="O30" s="1" t="inlineStr"/>
       <c r="P30" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q30" s="1" t="inlineStr"/>
@@ -4691,7 +4691,7 @@
       <c r="O31" s="1" t="inlineStr"/>
       <c r="P31" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q31" s="1" t="inlineStr"/>
@@ -4819,7 +4819,7 @@
       <c r="O32" s="1" t="inlineStr"/>
       <c r="P32" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q32" s="1" t="inlineStr"/>
@@ -4947,7 +4947,7 @@
       <c r="O33" s="1" t="inlineStr"/>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr"/>
@@ -5075,7 +5075,7 @@
       <c r="O34" s="1" t="inlineStr"/>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
       <c r="O35" s="1" t="inlineStr"/>
       <c r="P35" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q35" s="1" t="inlineStr"/>
@@ -5331,7 +5331,7 @@
       <c r="O36" s="1" t="inlineStr"/>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr"/>
@@ -5459,7 +5459,7 @@
       <c r="O37" s="1" t="inlineStr"/>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr"/>
@@ -5587,7 +5587,7 @@
       <c r="O38" s="1" t="inlineStr"/>
       <c r="P38" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q38" s="1" t="inlineStr"/>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q39" s="1" t="inlineStr">
@@ -5863,7 +5863,7 @@
       <c r="O40" s="1" t="inlineStr"/>
       <c r="P40" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q40" s="1" t="inlineStr"/>
@@ -5991,7 +5991,7 @@
       <c r="O41" s="1" t="inlineStr"/>
       <c r="P41" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q41" s="1" t="inlineStr"/>
@@ -6119,7 +6119,7 @@
       <c r="O42" s="1" t="inlineStr"/>
       <c r="P42" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q42" s="1" t="inlineStr"/>
@@ -6247,7 +6247,7 @@
       <c r="O43" s="1" t="inlineStr"/>
       <c r="P43" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q43" s="1" t="inlineStr"/>
@@ -6375,7 +6375,7 @@
       <c r="O44" s="1" t="inlineStr"/>
       <c r="P44" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q44" s="1" t="inlineStr"/>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="P45" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q45" s="1" t="inlineStr">
@@ -6627,7 +6627,7 @@
       <c r="O46" s="1" t="inlineStr"/>
       <c r="P46" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q46" s="1" t="inlineStr"/>
@@ -6751,7 +6751,7 @@
       <c r="O47" s="1" t="inlineStr"/>
       <c r="P47" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q47" s="1" t="inlineStr"/>
@@ -6875,7 +6875,7 @@
       <c r="O48" s="1" t="inlineStr"/>
       <c r="P48" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q48" s="1" t="inlineStr"/>
@@ -6999,7 +6999,7 @@
       <c r="O49" s="1" t="inlineStr"/>
       <c r="P49" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q49" s="1" t="inlineStr"/>
@@ -7123,7 +7123,7 @@
       <c r="O50" s="1" t="inlineStr"/>
       <c r="P50" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q50" s="1" t="inlineStr"/>
@@ -7247,7 +7247,7 @@
       <c r="O51" s="1" t="inlineStr"/>
       <c r="P51" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q51" s="1" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
       <c r="O52" s="1" t="inlineStr"/>
       <c r="P52" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q52" s="1" t="inlineStr"/>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="P53" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q53" s="1" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="P54" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q54" s="1" t="inlineStr"/>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="P55" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q55" s="1" t="inlineStr"/>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="P56" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q56" s="1" t="inlineStr">
@@ -8043,7 +8043,7 @@
       </c>
       <c r="P57" s="1" t="inlineStr">
         <is>
-          <t>Mortendad</t>
+          <t>Mortandad</t>
         </is>
       </c>
       <c r="Q57" s="1" t="inlineStr">
@@ -10304,7 +10304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10314,7 +10314,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="12.25"/>
     <col customWidth="1" max="2" min="2" width="10.14"/>
-    <col customWidth="1" max="3" min="3" width="12"/>
+    <col customWidth="1" max="3" min="3" width="13"/>
     <col customWidth="1" max="4" min="4" width="9.15"/>
     <col customWidth="1" max="5" min="5" width="7"/>
     <col customWidth="1" max="6" min="6" width="16.25"/>
@@ -10622,7 +10622,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Mortendad Canyon</t>
+          <t>Mortandad Canyon</t>
         </is>
       </c>
       <c r="H10" s="5" t="n"/>
@@ -12598,7 +12598,7 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>Los Alamos and Pajarito Canyons</t>
+          <t>Los Alamos Canyon</t>
         </is>
       </c>
       <c r="H61" s="5" t="n"/>
@@ -13068,76 +13068,42 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>18-BG-4</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>35.83927</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>-106.2733</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr">
-        <is>
-          <t>2/18/98</t>
-        </is>
-      </c>
-      <c r="E74" s="1" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="F74" s="1" t="inlineStr">
-        <is>
-          <t>2.5 - 6.5</t>
-        </is>
-      </c>
-      <c r="G74" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H74" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
+      <c r="A74" s="4" t="inlineStr">
+        <is>
+          <t>Pajarito Canyon</t>
+        </is>
+      </c>
+      <c r="H74" s="5" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>18-MW-17</t>
+          <t>18-BG-4</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>35.83641</t>
+          <t>35.83927</t>
         </is>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>-106.2589</t>
+          <t>-106.2733</t>
         </is>
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>9/1/95</t>
+          <t>2/18/98</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>12 - 22</t>
+          <t>2.5 - 6.5</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
@@ -13154,28 +13120,32 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>18-MW-7</t>
+          <t>18-MW-17</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>35.8421047</t>
+          <t>35.83641</t>
         </is>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>-106.2687953</t>
-        </is>
-      </c>
-      <c r="D76" s="1" t="inlineStr"/>
+          <t>-106.2589</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>9/1/95</t>
+        </is>
+      </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>10 - 30</t>
+          <t>12 - 22</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
@@ -13192,51 +13162,90 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
+          <t>18-MW-7</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>35.8421047</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>-106.2687953</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr"/>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <t>10 - 30</t>
+        </is>
+      </c>
+      <c r="G77" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H77" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
           <t>PCAO-7b1</t>
         </is>
       </c>
-      <c r="B77" s="1" t="inlineStr">
+      <c r="B78" s="1" t="inlineStr">
         <is>
           <t>35.83853</t>
         </is>
       </c>
-      <c r="C77" s="1" t="inlineStr">
+      <c r="C78" s="1" t="inlineStr">
         <is>
           <t>-106.2621</t>
         </is>
       </c>
-      <c r="D77" s="1" t="inlineStr">
+      <c r="D78" s="1" t="inlineStr">
         <is>
           <t>5/21/08</t>
         </is>
       </c>
-      <c r="E77" s="1" t="inlineStr">
+      <c r="E78" s="1" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="F77" s="1" t="inlineStr">
+      <c r="F78" s="1" t="inlineStr">
         <is>
           <t>44 - 54</t>
         </is>
       </c>
-      <c r="G77" s="1" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
-      </c>
-      <c r="H77" s="1" t="inlineStr">
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="H78" s="1" t="inlineStr">
         <is>
           <t>No Data</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A74:H74"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
